--- a/biology/Botanique/Caryoteae/Caryoteae.xlsx
+++ b/biology/Botanique/Caryoteae/Caryoteae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Caryoteae sont une tribu de palmiers de la famille des Arecaceae, répartis en Asie du Sud-est, du sud de l'Inde et le Sri Lanka est au Vanuatu et la plus au nord du Queensland, en Australie. Il a longtemps été considéré comme un membre de la sous-famille des Arecoideae sur la base de ses inflorescences, qui ressemblent à ceux de la tribu des Iriarteeae, et les fleurs disposées en triades (deux fleurs mâles avec en son centre une fleur femelle), qui sont communs à l'ensemble de Arecoideae[2]. Cependant, des études phylogénétiques basées sur l'ADN, ont trouvé à plusieurs reprises des liens dans la tribu des Caryoteae de la sous-famille des Coryphoideae. Les Caryoteae n'ont pas des feuilles avec des plis indupliqués, une fonctionnalité que l'on trouve dans la plupart des palmiers de la sous-famille des Coryphoideae, mais contrairement à la plupart des Coryphoideae, les feuilles sont pennées (Arenga) ou bipennées (Caryota)[3],[4]. Phoenix est le seul autre genre dans les Coryphoideae avec des feuilles pennées et indupliquées .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Caryoteae sont une tribu de palmiers de la famille des Arecaceae, répartis en Asie du Sud-est, du sud de l'Inde et le Sri Lanka est au Vanuatu et la plus au nord du Queensland, en Australie. Il a longtemps été considéré comme un membre de la sous-famille des Arecoideae sur la base de ses inflorescences, qui ressemblent à ceux de la tribu des Iriarteeae, et les fleurs disposées en triades (deux fleurs mâles avec en son centre une fleur femelle), qui sont communs à l'ensemble de Arecoideae. Cependant, des études phylogénétiques basées sur l'ADN, ont trouvé à plusieurs reprises des liens dans la tribu des Caryoteae de la sous-famille des Coryphoideae. Les Caryoteae n'ont pas des feuilles avec des plis indupliqués, une fonctionnalité que l'on trouve dans la plupart des palmiers de la sous-famille des Coryphoideae, mais contrairement à la plupart des Coryphoideae, les feuilles sont pennées (Arenga) ou bipennées (Caryota),. Phoenix est le seul autre genre dans les Coryphoideae avec des feuilles pennées et indupliquées .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette tribu contient seulement deux genres[5], le genre Wallichia étant inclut dans le genre Arenga :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette tribu contient seulement deux genres, le genre Wallichia étant inclut dans le genre Arenga :
 Arenga
 Caryota</t>
         </is>
